--- a/data/trans_dic/p64d1_r-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,47; 24,31</t>
+          <t>12,22; 24,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,97; 33,96</t>
+          <t>21,55; 33,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,99; 26,64</t>
+          <t>18,16; 27,13</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,47; 27,63</t>
+          <t>14,06; 27,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,94; 36,42</t>
+          <t>23,67; 36,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,99; 29,36</t>
+          <t>19,84; 29,02</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,32; 34,36</t>
+          <t>19,61; 34,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,65; 50,51</t>
+          <t>34,43; 50,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,17; 39,67</t>
+          <t>28,55; 39,98</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,03; 31,62</t>
+          <t>16,03; 31,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,34; 53,32</t>
+          <t>29,25; 53,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,74; 40,69</t>
+          <t>24,85; 40,25</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,33; 52,64</t>
+          <t>36,55; 52,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,19; 64,24</t>
+          <t>49,88; 64,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,78; 56,29</t>
+          <t>45,7; 56,41</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,68; 37,48</t>
+          <t>22,82; 37,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,37; 62,83</t>
+          <t>44,67; 61,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,89; 45,24</t>
+          <t>33,27; 44,66</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,94; 15,86</t>
+          <t>8,18; 16,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,24; 28,53</t>
+          <t>19,69; 28,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,03; 20,84</t>
+          <t>15,08; 21,13</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,74; 32,87</t>
+          <t>19,37; 33,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>42,0; 52,76</t>
+          <t>42,16; 53,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28,27; 39,78</t>
+          <t>29,22; 39,72</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>21,08; 25,83</t>
+          <t>20,87; 25,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>35,64; 41,06</t>
+          <t>35,82; 40,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>28,13; 32,02</t>
+          <t>28,17; 32,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p64d1_r-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,22; 24,67</t>
+          <t>12,47; 24,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,55; 33,14</t>
+          <t>21,97; 33,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,16; 27,13</t>
+          <t>17,99; 26,64</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,06; 27,21</t>
+          <t>13,47; 27,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,67; 36,25</t>
+          <t>23,94; 36,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,84; 29,02</t>
+          <t>19,99; 29,36</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,61; 34,17</t>
+          <t>20,32; 34,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,43; 50,25</t>
+          <t>34,65; 50,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,55; 39,98</t>
+          <t>29,17; 39,67</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,03; 31,41</t>
+          <t>16,03; 31,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,25; 53,84</t>
+          <t>28,34; 53,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,85; 40,25</t>
+          <t>24,74; 40,69</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,55; 52,63</t>
+          <t>37,33; 52,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>49,88; 64,33</t>
+          <t>50,19; 64,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,7; 56,41</t>
+          <t>45,78; 56,29</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,82; 37,76</t>
+          <t>22,68; 37,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>44,67; 61,76</t>
+          <t>45,37; 62,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,27; 44,66</t>
+          <t>33,89; 45,24</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,18; 16,2</t>
+          <t>7,94; 15,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,69; 28,13</t>
+          <t>20,24; 28,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,08; 21,13</t>
+          <t>15,03; 20,84</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,37; 33,19</t>
+          <t>19,74; 32,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>42,16; 53,21</t>
+          <t>42,0; 52,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,22; 39,72</t>
+          <t>28,27; 39,78</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,95</t>
+          <t>21,08; 25,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>35,82; 40,9</t>
+          <t>35,64; 41,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>28,17; 32,1</t>
+          <t>28,13; 32,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p64d1_r-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>21,56%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,47; 24,31</t>
+          <t>12,17; 24,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,97; 33,96</t>
+          <t>22,02; 34,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,99; 26,64</t>
+          <t>17,47; 26,69</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>24,29%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,47; 27,63</t>
+          <t>13,54; 28,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,94; 36,42</t>
+          <t>24,25; 36,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,99; 29,36</t>
+          <t>19,82; 29,64</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42,71%</t>
+          <t>42,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>33,77%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,32; 34,36</t>
+          <t>20,14; 34,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,65; 50,51</t>
+          <t>34,72; 50,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,17; 39,67</t>
+          <t>28,96; 39,43</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>48,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>38,17%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,03; 31,62</t>
+          <t>15,86; 31,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,34; 53,32</t>
+          <t>24,94; 76,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,74; 40,69</t>
+          <t>23,99; 64,49</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>44,59%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>57,62%</t>
+          <t>57,91%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>50,92%</t>
+          <t>51,02%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,33; 52,64</t>
+          <t>37,33; 52,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,19; 64,24</t>
+          <t>50,63; 64,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,78; 56,29</t>
+          <t>46,06; 56,53</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>53,8%</t>
+          <t>53,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>39,2%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,68; 37,48</t>
+          <t>22,69; 37,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,37; 62,83</t>
+          <t>45,42; 62,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,89; 45,24</t>
+          <t>33,58; 45,02</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>17,46%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,94; 15,86</t>
+          <t>7,72; 15,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,24; 28,53</t>
+          <t>20,25; 28,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,03; 20,84</t>
+          <t>14,64; 20,52</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>47,64%</t>
+          <t>47,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>27,4%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,74; 32,87</t>
+          <t>7,73; 32,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>42,0; 52,76</t>
+          <t>41,72; 52,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28,27; 39,78</t>
+          <t>12,62; 38,74</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>28,72%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>21,08; 25,83</t>
+          <t>13,37; 24,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>35,64; 41,06</t>
+          <t>35,41; 49,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>28,13; 32,02</t>
+          <t>22,38; 32,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p64d1_r-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,17; 24,39</t>
+          <t>11,89; 23,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,02; 34,16</t>
+          <t>21,78; 34,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,47; 26,69</t>
+          <t>17,53; 26,02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,54; 28,06</t>
+          <t>14,49; 28,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,25; 36,86</t>
+          <t>23,79; 36,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,82; 29,64</t>
+          <t>19,7; 29,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,14; 34,15</t>
+          <t>20,11; 34,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,72; 50,47</t>
+          <t>34,78; 50,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,96; 39,43</t>
+          <t>28,61; 39,23</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,86; 31,36</t>
+          <t>16,2; 31,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,94; 76,87</t>
+          <t>24,97; 78,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,99; 64,49</t>
+          <t>23,97; 65,9</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,33; 52,48</t>
+          <t>36,17; 52,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,63; 64,65</t>
+          <t>50,77; 64,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,06; 56,53</t>
+          <t>45,55; 56,36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,69; 37,57</t>
+          <t>22,89; 37,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,42; 62,84</t>
+          <t>44,5; 63,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,58; 45,02</t>
+          <t>33,91; 45,32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,72; 15,61</t>
+          <t>7,92; 15,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,25; 28,47</t>
+          <t>20,45; 29,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,64; 20,52</t>
+          <t>14,67; 20,63</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,73; 32,07</t>
+          <t>7,1; 32,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>41,72; 52,32</t>
+          <t>41,56; 52,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,62; 38,74</t>
+          <t>12,35; 39,03</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,37; 24,43</t>
+          <t>14,05; 24,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>35,41; 49,81</t>
+          <t>35,3; 49,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,38; 32,67</t>
+          <t>22,69; 33,5</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se traslada al trabajo o actividad habitual de forma activa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>33260</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>39295</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>72555</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>22857; 45691</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31441; 50462</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>58987; 87543</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>50145</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>49745</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>99890</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>35578; 70475</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>39403; 60631</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>81001; 122081</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>39309</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>51720</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>91029</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>29906; 51393</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>42035; 60486</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>77109; 105750</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>38430</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>124223</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>162653</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>27113; 52044</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>64624; 202253</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>102168; 280853</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>50903</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>62036</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>112939</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>41326; 59468</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>54381; 68880</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>100833; 124750</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>40305</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>46510</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>86815</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>30914; 50877</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>38447; 54468</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>75089; 100370</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>37695</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>74220</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>111915</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>26463; 52116</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>62710; 89234</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>94051; 132216</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>117938</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>128507</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>246445</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>44593; 205255</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>112654; 142836</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>111097; 351024</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>407985</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>576256</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>984242</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>276125; 480515</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>515749; 720912</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>777389; 1147904</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>